--- a/public/format_datapengguna.xlsx
+++ b/public/format_datapengguna.xlsx
@@ -1,69 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44ff862a0979d1d2/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E323684-4AB9-4422-BACB-25456235690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>cindy</t>
-  </si>
-  <si>
-    <t>agmal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAK AKSES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAKTU INPUT </t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>fajar</t>
+  </si>
+  <si>
+    <t>sandy</t>
   </si>
   <si>
     <t>rio</t>
   </si>
   <si>
-    <t>sandy</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
-  </si>
-  <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>Daftar Murid Kelas XII-RPL</t>
+    <t>rio@gmail.com</t>
+  </si>
+  <si>
+    <t>fajar@gmail.com</t>
+  </si>
+  <si>
+    <t>sandy@gmail.com</t>
+  </si>
+  <si>
+    <t>rio54321</t>
+  </si>
+  <si>
+    <t>sandy54321</t>
+  </si>
+  <si>
+    <t>fajar54321</t>
+  </si>
+  <si>
+    <t>erik</t>
+  </si>
+  <si>
+    <t>erik@gmail.com</t>
+  </si>
+  <si>
+    <t>erik54321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      2/23/2024/16:04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +97,34 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -82,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,21 +174,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="10">
+    <cellStyle name="Comma [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hipertaut" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 7" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 9" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,44 +247,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -221,12 +314,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -256,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -265,248 +358,295 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45316.339583333334</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="F3" s="4">
+        <v>45315.17083333333</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45772.253472222219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{22BCE2C7-63E5-46BE-BBB6-46D46A1E3E0C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>